--- a/dict001.xlsx
+++ b/dict001.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -994,7 +994,7 @@
   <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
